--- a/results/01-2023/contributions-comparison-01-2023.xlsx
+++ b/results/01-2023/contributions-comparison-01-2023.xlsx
@@ -1047,31 +1047,31 @@
         <v>-0.0589</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0722</v>
+        <v>-0.0663</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0723</v>
+        <v>-0.0079</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0297</v>
+        <v>-0.0126</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0295</v>
+        <v>-0.0183</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0517</v>
+        <v>-0.0516</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0741</v>
+        <v>0.0033</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0335</v>
+        <v>0.0125</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0321</v>
+        <v>0.012</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0405</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="14">
@@ -1186,7 +1186,7 @@
         <v>0.0342</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.1402</v>
+        <v>-0.0637</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -1216,34 +1216,34 @@
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="n">
-        <v>-0.0911</v>
+        <v>-0.0648</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0622</v>
+        <v>-0.0475</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0387</v>
+        <v>-0.1033</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0156</v>
+        <v>-0.0365</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0177</v>
+        <v>-0.0239</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.0394</v>
+        <v>-0.0264</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0343</v>
+        <v>-0.0206</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0284</v>
+        <v>-0.0218</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0189</v>
+        <v>-0.0304</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0034</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="18">
@@ -1788,7 +1788,7 @@
         <v>-4.8306</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.5625</v>
+        <v>-2.486</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -1818,34 +1818,34 @@
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" t="n">
-        <v>-1.0501</v>
+        <v>-1.0237</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.4942</v>
+        <v>-1.4718</v>
       </c>
       <c r="L31" t="n">
-        <v>-2.3518</v>
+        <v>-1.7899</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.8729</v>
+        <v>-0.8836</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.6989</v>
+        <v>-0.7029</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.1566</v>
+        <v>-0.7425</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.3425</v>
+        <v>-0.3441</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.313</v>
+        <v>-0.3357</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.048</v>
+        <v>-0.0937</v>
       </c>
       <c r="S31" t="n">
-        <v>0.0789</v>
+        <v>0.0342</v>
       </c>
     </row>
     <row r="32">
@@ -2168,25 +2168,25 @@
         <v>-0.0211</v>
       </c>
       <c r="L39" t="n">
-        <v>-1.0399</v>
+        <v>-0.4285</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0002</v>
+        <v>-0.0125</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0002</v>
+        <v>-0.0123</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.0106</v>
+        <v>-0.6088</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>-0.0062</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -2509,31 +2509,31 @@
         <v>-0.0871</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.0042</v>
+        <v>-0.0025</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0913</v>
+        <v>0.004</v>
       </c>
       <c r="M47" t="n">
-        <v>0.1147</v>
+        <v>0.12</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1087</v>
+        <v>0.1118</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0955</v>
+        <v>0.0948</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0826</v>
+        <v>-0.01</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.059</v>
+        <v>-0.0672</v>
       </c>
       <c r="R47" t="n">
-        <v>-0.0471</v>
+        <v>-0.055</v>
       </c>
       <c r="S47" t="n">
-        <v>-0.046</v>
+        <v>-0.0536</v>
       </c>
     </row>
     <row r="48">
@@ -3455,31 +3455,31 @@
         <v>0.0146</v>
       </c>
       <c r="K69" t="n">
-        <v>0.0117</v>
+        <v>0.0176</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0087</v>
+        <v>-0.0715</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0061</v>
+        <v>0.0232</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.0082</v>
+        <v>0.003</v>
       </c>
       <c r="O69" t="n">
         <v>-0.0058</v>
       </c>
       <c r="P69" t="n">
-        <v>-0.0035</v>
+        <v>0.0739</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.0014</v>
+        <v>-0.0224</v>
       </c>
       <c r="R69" t="n">
-        <v>-0.0013</v>
+        <v>-0.0214</v>
       </c>
       <c r="S69" t="n">
-        <v>-0.0013</v>
+        <v>-0.0205</v>
       </c>
     </row>
     <row r="70">
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.0765</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
@@ -3624,34 +3624,34 @@
       <c r="H73"/>
       <c r="I73"/>
       <c r="J73" t="n">
-        <v>-0.0004</v>
+        <v>0.0259</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0002</v>
+        <v>0.0149</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>-0.0646</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0002</v>
+        <v>-0.0207</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>-0.0061</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>0.0066</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>-0.0115</v>
       </c>
       <c r="S73" t="n">
-        <v>0.0001</v>
+        <v>-0.0178</v>
       </c>
     </row>
     <row r="74">
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0005</v>
+        <v>0.0769</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -4226,34 +4226,34 @@
       <c r="H87"/>
       <c r="I87"/>
       <c r="J87" t="n">
-        <v>1.0517</v>
+        <v>1.078</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3384</v>
+        <v>0.3607</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2001</v>
+        <v>0.7619</v>
       </c>
       <c r="M87" t="n">
-        <v>0.1913</v>
+        <v>0.1807</v>
       </c>
       <c r="N87" t="n">
-        <v>-0.2288</v>
+        <v>-0.2328</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0116</v>
+        <v>-0.5743</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0256</v>
+        <v>0.024</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0254</v>
+        <v>0.0026</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.0407</v>
+        <v>-0.0864</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.0364</v>
+        <v>-0.0811</v>
       </c>
     </row>
     <row r="88">
@@ -4576,25 +4576,25 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0007</v>
+        <v>0.6121</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>-0.0122</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>-0.0121</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>-0.5982</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>-0.0062</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -4917,31 +4917,31 @@
         <v>-0.0085</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.0091</v>
+        <v>-0.0074</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.0097</v>
+        <v>0.0856</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.0106</v>
+        <v>-0.0053</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.0022</v>
+        <v>0.0009</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.0013</v>
+        <v>-0.002</v>
       </c>
       <c r="P103" t="n">
-        <v>-0.0004</v>
+        <v>-0.0929</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0007</v>
+        <v>-0.0074</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0007</v>
+        <v>-0.0072</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0007</v>
+        <v>-0.0069</v>
       </c>
     </row>
     <row r="104">
